--- a/data/trans_orig/P14C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BD6049-42B8-4B32-ACE5-F92034C47F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB205F30-04A5-45A8-BE2B-677CFC060530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A30542A-0DD2-41E4-9199-E560D1473E7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E2395B9-375D-4E9A-A490-75BDF0D5397D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2015 (Tasa respuesta: 0,67%)</t>
   </si>
@@ -104,10 +104,10 @@
     <t>56,43%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>28,05%</t>
@@ -125,10 +125,10 @@
     <t>43,57%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>0%</t>
@@ -158,19 +158,13 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>33,28%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>93,31%</t>
   </si>
   <si>
     <t>16,29%</t>
@@ -182,16 +176,16 @@
     <t>22,93%</t>
   </si>
   <si>
-    <t>58,56%</t>
+    <t>58,32%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -200,13 +194,13 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>41,66%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>26,45%</t>
+    <t>28,06%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -218,19 +212,16 @@
     <t>42,76%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>81,2%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>43,3%</t>
@@ -239,16 +230,16 @@
     <t>32,97%</t>
   </si>
   <si>
-    <t>73,74%</t>
+    <t>78,57%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -257,13 +248,13 @@
     <t>24,27%</t>
   </si>
   <si>
-    <t>68,22%</t>
+    <t>65,23%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>53,68%</t>
+    <t>54,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -284,10 +275,10 @@
     <t>69,16%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>28,41%</t>
@@ -302,10 +293,10 @@
     <t>22,03%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>11,36%</t>
@@ -317,61 +308,58 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>42,5%</t>
+    <t>42,09%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -380,19 +368,19 @@
     <t>11,9%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60473AB6-F951-4D43-A0D7-5708F8EA69AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1E14-8F41-4100-95B2-CB08CAC50D48}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1340,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1349,13 +1337,13 @@
         <v>12181</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,13 +1358,13 @@
         <v>1038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1385,13 +1373,13 @@
         <v>2333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1400,13 +1388,13 @@
         <v>3371</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1436,13 +1424,13 @@
         <v>996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1451,13 +1439,13 @@
         <v>996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,7 +1501,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1525,7 +1513,7 @@
         <v>1132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -1540,13 +1528,13 @@
         <v>3391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1555,13 +1543,13 @@
         <v>4523</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,7 +1564,7 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1591,13 +1579,13 @@
         <v>2614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1606,13 +1594,13 @@
         <v>3479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1621,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1642,13 +1630,13 @@
         <v>1925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1657,13 +1645,13 @@
         <v>1925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1707,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1734,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -1746,13 +1734,13 @@
         <v>6146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1761,13 +1749,13 @@
         <v>9099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1785,13 @@
         <v>2899</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1812,13 +1800,13 @@
         <v>2899</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1836,13 @@
         <v>1159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1863,13 +1851,13 @@
         <v>1159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1925,13 @@
         <v>11487</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -1952,13 +1940,13 @@
         <v>19300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -1967,13 +1955,13 @@
         <v>30787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1976,13 @@
         <v>2709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2003,13 +1991,13 @@
         <v>10887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2018,13 +2006,13 @@
         <v>13596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2033,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2054,13 +2042,13 @@
         <v>4079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2069,13 +2057,13 @@
         <v>4079</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2119,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB205F30-04A5-45A8-BE2B-677CFC060530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C88E8A-1D9A-462B-A742-29ECCA0488A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E2395B9-375D-4E9A-A490-75BDF0D5397D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BC2D16E-A52F-44C6-8BC2-44F04B9A3E65}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2015 (Tasa respuesta: 0,67%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2016 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -80,7 +80,7 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>71,95%</t>
@@ -95,19 +95,19 @@
     <t>48,94%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>28,05%</t>
@@ -116,19 +116,19 @@
     <t>51,06%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>43,57%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>0%</t>
@@ -146,7 +146,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>83,71%</t>
@@ -158,13 +158,19 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>33,28%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>93,31%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>16,29%</t>
@@ -176,16 +182,16 @@
     <t>22,93%</t>
   </si>
   <si>
-    <t>58,32%</t>
+    <t>68,51%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -194,172 +200,178 @@
     <t>9,79%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>41,56%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -368,19 +380,19 @@
     <t>11,9%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1E14-8F41-4100-95B2-CB08CAC50D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F22B93-B000-4B5D-BCB5-074E50DE04EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1328,7 +1340,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1337,13 +1349,13 @@
         <v>12181</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,13 +1370,13 @@
         <v>1038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1373,13 +1385,13 @@
         <v>2333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1388,13 +1400,13 @@
         <v>3371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,7 +1427,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1424,13 +1436,13 @@
         <v>996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1439,13 +1451,13 @@
         <v>996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,7 +1513,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1513,7 +1525,7 @@
         <v>1132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -1528,13 +1540,13 @@
         <v>3391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1543,13 +1555,13 @@
         <v>4523</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,7 +1576,7 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1579,13 +1591,13 @@
         <v>2614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1594,13 +1606,13 @@
         <v>3479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,7 +1633,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1630,13 +1642,13 @@
         <v>1925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1645,13 +1657,13 @@
         <v>1925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1719,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1722,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -1734,13 +1746,13 @@
         <v>6146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1749,13 +1761,13 @@
         <v>9099</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1797,13 @@
         <v>2899</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1800,13 +1812,13 @@
         <v>2899</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1848,13 @@
         <v>1159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1851,13 +1863,13 @@
         <v>1159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1937,13 @@
         <v>11487</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -1940,13 +1952,13 @@
         <v>19300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -1955,13 +1967,13 @@
         <v>30787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1988,13 @@
         <v>2709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -1991,13 +2003,13 @@
         <v>10887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2006,13 +2018,13 @@
         <v>13596</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2042,13 +2054,13 @@
         <v>4079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2057,13 +2069,13 @@
         <v>4079</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2131,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
